--- a/trunk/TiledProperties.xlsx
+++ b/trunk/TiledProperties.xlsx
@@ -467,6 +467,55 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">auto-configurada por default según profundidad, van dos numeros enteros separados por coma  (o fraccionarios con punto) sino se considera como </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">un solo valor para el Eje </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          (y para </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Y = 0)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">(0, 0) por default, van dos numeros separados por coma           (o fraccionarios con punto) sino se considera como  </t>
     </r>
     <r>
@@ -503,6 +552,9 @@
     <t xml:space="preserve"> RepeatX</t>
   </si>
   <si>
+    <t>NoRepeat</t>
+  </si>
+  <si>
     <r>
       <t>modo "</t>
     </r>
@@ -529,54 +581,14 @@
     </r>
   </si>
   <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>(PixelPerfect por default) propiedad exclusiva del modo    "Size = Original" cuando la textura es menor que el viewport esta se tilea en el eje indicado hasta cubrir todo el area libre y desactivando el tiling en el eje opuesto.   (usar valor Single para desactivarlo en ambos ejes)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">auto-configurada por default según profundidad, van dos numeros enteros separados por coma  (o fraccionarios con punto) sino se considera como un solo valor para el Eje </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">          (y para </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Y = 0)</t>
-    </r>
+    <t>(PixelPerfect por default) propiedad exclusiva del modo    "Size = Original" cuando la textura es menor que el viewport esta se tilea en el eje indicado hasta cubrir todo el area libre y desactivando el tiling en el eje opuesto.  (usar NoRepeat para desactivar ambos ejes a la vez)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,13 +621,6 @@
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1104,7 +1109,7 @@
   <dimension ref="A2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,7 +1153,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="7"/>
@@ -1235,7 +1240,7 @@
       <c r="D14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1276,7 +1281,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
@@ -1285,19 +1290,18 @@
     <row r="19" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
       <c r="C20" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" s="24"/>
-      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="20"/>
@@ -1314,8 +1318,8 @@
       <c r="C22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>47</v>
+      <c r="D22" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="6"/>
@@ -1329,7 +1333,7 @@
         <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>

--- a/trunk/TiledProperties.xlsx
+++ b/trunk/TiledProperties.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
   <si>
     <t>PROPERTIES IN TILED:</t>
   </si>
@@ -582,6 +582,99 @@
   </si>
   <si>
     <t>(PixelPerfect por default) propiedad exclusiva del modo    "Size = Original" cuando la textura es menor que el viewport esta se tilea en el eje indicado hasta cubrir todo el area libre y desactivando el tiling en el eje opuesto.  (usar NoRepeat para desactivar ambos ejes a la vez)</t>
+  </si>
+  <si>
+    <t>Objects Types_</t>
+  </si>
+  <si>
+    <t>Dengue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type</t>
+  </si>
+  <si>
+    <t>Gaucho</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> …</t>
+  </si>
+  <si>
+    <t>Mono</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bichejos de mala vida que aparte de molestar al Player no tienen importancia</t>
+  </si>
+  <si>
+    <t>Door / Warp</t>
+  </si>
+  <si>
+    <t>Nombre / Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Target</t>
+  </si>
+  <si>
+    <t>CheckPoint</t>
+  </si>
+  <si>
+    <t>Punto de llegada, si se especifica "Start" desde allí se empieza a jugar en la carga de cada nuevo nivel sino esquina izquierda</t>
+  </si>
+  <si>
+    <t>Id de destino a cualquier Warp dentro del  mismo mapa, se puede cargar otros mapas también poniendo por ejemplo: "/Levels/NivelX.tmx" y con "Exit" se vuelve al Mapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Opcional / Start</t>
+  </si>
+  <si>
+    <t>Opcional / "file.tmx" / Exit</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Propiedades</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Valores Posibles:</t>
+  </si>
+  <si>
+    <t>Todos los Sitios de Warp y Doors registran automaticamente la ultima posición del Player en cada Mundo, Si no se especifica Ni Id ni Target esta será su unica función.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Los Warps pueden crearse con Objetos de un Modulo o con Volumenes de Area Extendidas (Muy utiles para cubrír mejor)</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( -2, 5, 0 )</t>
+  </si>
+  <si>
+    <t>velocidad (decimales siempre con punto)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lugar de destino de la plataforma que circula a partír de origen de posición en tiled </t>
+  </si>
+  <si>
+    <t>FlyPlatformA / FlyPlatformB / FlyPlatformC</t>
+  </si>
+  <si>
+    <t>Personaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nameid </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conversacion1</t>
+  </si>
+  <si>
+    <t>cada personaje tiene sus propias charlas y subcharlas</t>
   </si>
 </sst>
 </file>
@@ -628,7 +721,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -653,8 +746,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -727,11 +826,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -778,28 +952,91 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1106,10 +1343,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H33"/>
+  <dimension ref="A2:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,6 +1355,7 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="55" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1178,7 +1416,7 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -1191,7 +1429,7 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="12" t="s">
         <v>8</v>
       </c>
@@ -1200,7 +1438,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="12" t="s">
         <v>9</v>
       </c>
@@ -1244,7 +1482,7 @@
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="37" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -1255,7 +1493,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
@@ -1265,7 +1503,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="37" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -1276,7 +1514,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="17" t="s">
         <v>21</v>
       </c>
@@ -1288,27 +1526,27 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="42" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="24"/>
+      <c r="D20" s="43"/>
     </row>
     <row r="21" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="20"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="25"/>
+      <c r="D21" s="44"/>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1371,11 +1609,11 @@
       <c r="A26" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1385,16 +1623,176 @@
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="6"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="28"/>
+    </row>
+    <row r="31" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="32"/>
+    </row>
+    <row r="32" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+    </row>
+    <row r="33" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="35"/>
+      <c r="E33" s="36"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="38"/>
+      <c r="C37" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="39"/>
+      <c r="C38" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="26"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="2:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="46"/>
+      <c r="C40" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B42" s="14"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="11">
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B36:B38"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D31:E33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="91" fitToWidth="0" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/trunk/TiledProperties.xlsx
+++ b/trunk/TiledProperties.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
   <si>
     <t>PROPERTIES IN TILED:</t>
   </si>
@@ -665,16 +665,60 @@
     <t>FlyPlatformA / FlyPlatformB / FlyPlatformC</t>
   </si>
   <si>
-    <t>Personaje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nameid </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> conversacion1</t>
-  </si>
-  <si>
     <t>cada personaje tiene sus propias charlas y subcharlas</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nombre bicho </t>
+  </si>
+  <si>
+    <t>nameid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> clavel, fernando, kurupi</t>
+  </si>
+  <si>
+    <t>opción para cambiar archivo de dialogos por default</t>
+  </si>
+  <si>
+    <t>Conversation1.xml</t>
+  </si>
+  <si>
+    <t>"Comienzo", "Ganaste"</t>
+  </si>
+  <si>
+    <t>oneShot</t>
+  </si>
+  <si>
+    <t>por default true, si se especifica el Jugador entra en dialogo automaticamente al hacer contacto por primera vez sino es necesario hacer para arriba (como entrando en una puerta ) para iniciar una conversación luego.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mmh</t>
+  </si>
+  <si>
+    <t>Detalles</t>
+  </si>
+  <si>
+    <t>Personajes con Dialogo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tipo de subcharla asignado (se puede variar entre muchas para en un mismo archivo y mismo personaje) poner las mayusculas con </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exactitud</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -905,7 +949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -959,27 +1003,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1009,34 +1083,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1343,10 +1396,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H42"/>
+  <dimension ref="A2:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,7 +1408,7 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="55" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1416,7 +1469,7 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -1429,7 +1482,7 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="41"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="12" t="s">
         <v>8</v>
       </c>
@@ -1438,7 +1491,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="12" t="s">
         <v>9</v>
       </c>
@@ -1449,6 +1502,7 @@
       <c r="G10" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1482,7 +1536,7 @@
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="29" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -1493,7 +1547,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
@@ -1503,7 +1557,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -1514,7 +1568,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="38"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="17" t="s">
         <v>21</v>
       </c>
@@ -1526,27 +1580,27 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="38"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="32" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="38"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="43"/>
+      <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="39"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="34"/>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1609,11 +1663,11 @@
       <c r="A26" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1633,169 +1687,221 @@
       <c r="C30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="28"/>
-    </row>
-    <row r="31" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="38"/>
+    </row>
+    <row r="31" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="32"/>
-    </row>
-    <row r="32" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="42"/>
+    </row>
+    <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
-    </row>
-    <row r="33" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="45"/>
+      <c r="E33" s="46"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-    </row>
-    <row r="35" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
+    </row>
+    <row r="35" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="20" t="s">
-        <v>67</v>
+      <c r="D35" s="25" t="s">
+        <v>86</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>65</v>
       </c>
       <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="37" t="s">
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="21" t="s">
         <v>61</v>
       </c>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="38"/>
-      <c r="C37" s="23" t="s">
+    <row r="37" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="47"/>
+      <c r="C37" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="39"/>
-      <c r="C38" s="23" t="s">
+    <row r="38" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="31"/>
+      <c r="C38" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="26"/>
+      <c r="E38" s="36"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="2:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="45" t="s">
+    <row r="39" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="21" t="s">
         <v>71</v>
       </c>
+      <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="46"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="28"/>
       <c r="C40" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="14" t="s">
+    <row r="41" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="E41" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="27"/>
+      <c r="C42" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D42" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B43" s="27"/>
+      <c r="C43" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B42" s="14"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>61</v>
+      <c r="D43" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B44" s="28"/>
+      <c r="C44" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="14"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="14"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
+    </row>
+    <row r="49" spans="4:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D49" s="24" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B21"/>
+  <mergeCells count="12">
+    <mergeCell ref="B41:B44"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D31:E33"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="91" fitToWidth="0" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="27" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 

--- a/trunk/TiledProperties.xlsx
+++ b/trunk/TiledProperties.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
   <si>
     <t>PROPERTIES IN TILED:</t>
   </si>
@@ -719,6 +719,86 @@
       </rPr>
       <t>exactitud</t>
     </r>
+  </si>
+  <si>
+    <t>Map Properties</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>"fileName.ogg"</t>
+  </si>
+  <si>
+    <t>Para cargar un determinado tema en la carpeta Resources/Sound/.. (Fundamental incluír archivo Antes de Compilar proyecto)</t>
+  </si>
+  <si>
+    <t>Camera FixedHeight</t>
+  </si>
+  <si>
+    <t>CameraOffset</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Eje XY = (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-0.5, +2.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) Eje X + Y = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.21</t>
+    </r>
+  </si>
+  <si>
+    <t>Deja Fija la Camara para enfatizar un estilo de nivel (tipo camara clasica de Mario Bross)</t>
+  </si>
+  <si>
+    <t>En Combinación con propiedad anterior permite ajusta altura de Camara, por default estas opciones están desactivas y la camara sigue siempre al Pombre</t>
+  </si>
+  <si>
+    <t>Propiedades Generales para configurar en cada Mapa…</t>
   </si>
 </sst>
 </file>
@@ -949,7 +1029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1020,6 +1100,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1087,9 +1173,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1396,10 +1479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I49"/>
+  <dimension ref="A2:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,7 +1552,7 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -1482,7 +1565,7 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="30"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="12" t="s">
         <v>8</v>
       </c>
@@ -1491,7 +1574,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="12" t="s">
         <v>9</v>
       </c>
@@ -1536,7 +1619,7 @@
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -1547,7 +1630,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="31"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
@@ -1557,7 +1640,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -1568,7 +1651,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="47"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="17" t="s">
         <v>21</v>
       </c>
@@ -1580,27 +1663,27 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="34" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="33"/>
+      <c r="D20" s="35"/>
     </row>
     <row r="21" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="36"/>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1663,11 +1746,11 @@
       <c r="A26" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1687,10 +1770,10 @@
       <c r="C30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="38"/>
+      <c r="E30" s="40"/>
     </row>
     <row r="31" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
@@ -1699,10 +1782,10 @@
       <c r="C31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="42"/>
+      <c r="E31" s="44"/>
     </row>
     <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
@@ -1711,8 +1794,8 @@
       <c r="C32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="44"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
@@ -1721,14 +1804,14 @@
       <c r="C33" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
     </row>
     <row r="35" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
@@ -1747,7 +1830,7 @@
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="31" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="22" t="s">
@@ -1762,7 +1845,7 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="47"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="22" t="s">
         <v>57</v>
       </c>
@@ -1774,25 +1857,25 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="31"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="36"/>
+      <c r="E38" s="38"/>
       <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="49" t="s">
+      <c r="D39" s="27" t="s">
         <v>73</v>
       </c>
       <c r="E39" s="21" t="s">
@@ -1803,7 +1886,7 @@
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="28"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="11" t="s">
         <v>69</v>
       </c>
@@ -1815,7 +1898,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="28" t="s">
         <v>87</v>
       </c>
       <c r="C41" s="19" t="s">
@@ -1829,7 +1912,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="27"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="19" t="s">
         <v>76</v>
       </c>
@@ -1841,7 +1924,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B43" s="27"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="19" t="s">
         <v>78</v>
       </c>
@@ -1853,7 +1936,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B44" s="28"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="19" t="s">
         <v>83</v>
       </c>
@@ -1877,9 +1960,62 @@
       <c r="D46" s="20"/>
       <c r="E46" s="21"/>
     </row>
-    <row r="49" spans="4:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="D49" s="24" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B53" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B54" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B55" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D57" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/TiledProperties.xlsx
+++ b/trunk/TiledProperties.xlsx
@@ -617,9 +617,6 @@
     <t>CheckPoint</t>
   </si>
   <si>
-    <t>Punto de llegada, si se especifica "Start" desde allí se empieza a jugar en la carga de cada nuevo nivel sino esquina izquierda</t>
-  </si>
-  <si>
     <t>Id de destino a cualquier Warp dentro del  mismo mapa, se puede cargar otros mapas también poniendo por ejemplo: "/Levels/NivelX.tmx" y con "Exit" se vuelve al Mapa</t>
   </si>
   <si>
@@ -799,13 +796,39 @@
   </si>
   <si>
     <t>Propiedades Generales para configurar en cada Mapa…</t>
+  </si>
+  <si>
+    <r>
+      <t>Punto de llegada, si se especifica "Start" desde allí se empieza a jugar en la carga de cada nuevo nivel (FUNDAMENTAL: TIENE QUE SER EL PRIMERO SI O SI EN EL GRUPO DE OBJETOS SINO carga adonde se le canta</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y sino se especifica por default empieza en esquina izquierda superior</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -838,6 +861,13 @@
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1029,7 +1059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1105,6 +1135,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1481,8 +1514,8 @@
   </sheetPr>
   <dimension ref="A2:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,6 +1525,7 @@
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="55" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1552,7 +1586,7 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -1565,7 +1599,7 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="32"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="12" t="s">
         <v>8</v>
       </c>
@@ -1574,7 +1608,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="33"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="12" t="s">
         <v>9</v>
       </c>
@@ -1619,7 +1653,7 @@
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -1630,7 +1664,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="33"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
@@ -1640,7 +1674,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="32" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -1651,7 +1685,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="17" t="s">
         <v>21</v>
       </c>
@@ -1663,27 +1697,27 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="35" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="35"/>
+      <c r="D20" s="36"/>
     </row>
     <row r="21" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="33"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="37"/>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1746,11 +1780,11 @@
       <c r="A26" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1770,10 +1804,10 @@
       <c r="C30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="41"/>
     </row>
     <row r="31" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
@@ -1782,10 +1816,10 @@
       <c r="C31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="44"/>
+      <c r="E31" s="45"/>
     </row>
     <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
@@ -1794,8 +1828,8 @@
       <c r="C32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="47"/>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
@@ -1804,147 +1838,148 @@
       <c r="C33" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
     </row>
     <row r="35" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="D35" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="31" t="s">
+    <row r="36" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="32" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="20" t="s">
-        <v>59</v>
+      <c r="D36" s="27" t="s">
+        <v>99</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="49"/>
+        <v>60</v>
+      </c>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="50"/>
       <c r="C37" s="22" t="s">
         <v>57</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="33"/>
+        <v>61</v>
+      </c>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="34"/>
       <c r="C38" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="38"/>
+      <c r="D38" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="39"/>
       <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="28" t="s">
-        <v>74</v>
+      <c r="B39" s="29" t="s">
+        <v>73</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="30"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="41" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="30"/>
+      <c r="C42" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B43" s="30"/>
+      <c r="C43" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="29"/>
-      <c r="C42" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" s="21" t="s">
+      <c r="E43" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B43" s="29"/>
-      <c r="C43" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" s="21" t="s">
+    <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B44" s="31"/>
+      <c r="C44" s="19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B44" s="30"/>
-      <c r="C44" s="19" t="s">
+      <c r="D44" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="E44" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>85</v>
       </c>
       <c r="G44" s="6"/>
     </row>
@@ -1962,12 +1997,12 @@
     </row>
     <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="D49" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>2</v>
@@ -1981,41 +2016,41 @@
     </row>
     <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="D53" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B55" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/TiledProperties.xlsx
+++ b/trunk/TiledProperties.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
   <si>
     <t>PROPERTIES IN TILED:</t>
   </si>
@@ -620,9 +620,6 @@
     <t>Id de destino a cualquier Warp dentro del  mismo mapa, se puede cargar otros mapas también poniendo por ejemplo: "/Levels/NivelX.tmx" y con "Exit" se vuelve al Mapa</t>
   </si>
   <si>
-    <t xml:space="preserve"> Opcional / Start</t>
-  </si>
-  <si>
     <t>Opcional / "file.tmx" / Exit</t>
   </si>
   <si>
@@ -659,12 +656,6 @@
     <t xml:space="preserve">Lugar de destino de la plataforma que circula a partír de origen de posición en tiled </t>
   </si>
   <si>
-    <t>FlyPlatformA / FlyPlatformB / FlyPlatformC</t>
-  </si>
-  <si>
-    <t>cada personaje tiene sus propias charlas y subcharlas</t>
-  </si>
-  <si>
     <t>file</t>
   </si>
   <si>
@@ -698,9 +689,6 @@
     <t>Detalles</t>
   </si>
   <si>
-    <t>Personajes con Dialogo</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">tipo de subcharla asignado (se puede variar entre muchas para en un mismo archivo y mismo personaje) poner las mayusculas con </t>
     </r>
@@ -798,37 +786,47 @@
     <t>Propiedades Generales para configurar en cada Mapa…</t>
   </si>
   <si>
-    <r>
-      <t>Punto de llegada, si se especifica "Start" desde allí se empieza a jugar en la carga de cada nuevo nivel (FUNDAMENTAL: TIENE QUE SER EL PRIMERO SI O SI EN EL GRUPO DE OBJETOS SINO carga adonde se le canta</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> y sino se especifica por default empieza en esquina izquierda superior</t>
-    </r>
+    <t>chat</t>
+  </si>
+  <si>
+    <t>si existe algún bicho prediseñado se puede invocar, cada personaje tiene sus propias charlas y subcharlas (no hay nada)</t>
+  </si>
+  <si>
+    <t>CameraBound</t>
+  </si>
+  <si>
+    <t>Zoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando el personaje se mete dentro de una area definida Contiene a la camara dentro de esta sin mostrar nada por fuera, por default usa valor de zoom 2.5f </t>
+  </si>
+  <si>
+    <t>2 / 5, etc</t>
+  </si>
+  <si>
+    <t>FlyPlatform / FlyPlatform2 / FlyPlatform3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Opcional </t>
+  </si>
+  <si>
+    <t>Pombero</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Posicion Inicial del Player al Comenzar por primera vez el nivel</t>
+  </si>
+  <si>
+    <t>Nombre del Punto de llegada,  FUNDAMENTAL: para poder llegar a Destino Hasta aquí Conectando desde otro Warp tienen que coincidir 100% nombres con Mayusculas y to2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -861,13 +859,6 @@
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -907,7 +898,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1055,11 +1046,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1136,8 +1136,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1205,8 +1211,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1512,10 +1524,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I57"/>
+  <dimension ref="A2:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,7 +1598,7 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="34" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -1599,7 +1611,7 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="33"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="12" t="s">
         <v>8</v>
       </c>
@@ -1608,7 +1620,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="34"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="12" t="s">
         <v>9</v>
       </c>
@@ -1653,7 +1665,7 @@
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="34" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -1664,7 +1676,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
@@ -1674,7 +1686,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="34" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -1685,7 +1697,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="17" t="s">
         <v>21</v>
       </c>
@@ -1697,27 +1709,27 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="50"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="37" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="36"/>
+      <c r="D20" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="34"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="37"/>
+      <c r="D21" s="39"/>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1780,11 +1792,11 @@
       <c r="A26" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1804,10 +1816,10 @@
       <c r="C30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="41"/>
+      <c r="E30" s="43"/>
     </row>
     <row r="31" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
@@ -1816,10 +1828,10 @@
       <c r="C31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="44" t="s">
+      <c r="D31" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="45"/>
+      <c r="E31" s="47"/>
     </row>
     <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
@@ -1828,8 +1840,8 @@
       <c r="C32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="47"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
@@ -1838,232 +1850,260 @@
       <c r="C33" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="51"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
-    </row>
-    <row r="35" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="18" t="s">
+      <c r="B34" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="45"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="29"/>
+    </row>
+    <row r="36" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="D36" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="8" t="s">
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="54"/>
+    </row>
+    <row r="38" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="52"/>
+      <c r="C38" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="36"/>
+      <c r="C39" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="28"/>
-    </row>
-    <row r="37" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="50"/>
-      <c r="C37" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="34"/>
-      <c r="C38" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="39"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>70</v>
-      </c>
+      <c r="E39" s="41"/>
+      <c r="F39" s="7"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="31"/>
-      <c r="C40" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="20" t="s">
+    </row>
+    <row r="40" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="27" t="s">
         <v>71</v>
       </c>
       <c r="E40" s="21" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="19" t="s">
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="33"/>
+      <c r="C41" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="32"/>
+      <c r="C43" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="E43" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B44" s="32"/>
+      <c r="C44" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="30"/>
-      <c r="C42" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B43" s="30"/>
-      <c r="C43" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B44" s="31"/>
-      <c r="C44" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>83</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="14"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B45" s="33"/>
+      <c r="C45" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="14"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="19"/>
       <c r="D46" s="20"/>
       <c r="E46" s="21"/>
-    </row>
-    <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="D49" s="24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="14"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="21"/>
+    </row>
+    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D51" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B53" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B54" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B55" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B57" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D57" s="2" t="s">
-        <v>98</v>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B42:B45"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D31:E33"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B37:B39"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B21"/>
